--- a/Nirogi Haryana Dataset.xlsx
+++ b/Nirogi Haryana Dataset.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
-  <si>
-    <t>% of The Indicators</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
   <si>
     <t>Name Of Block</t>
   </si>
@@ -252,6 +249,12 @@
   </si>
   <si>
     <t>Report_date</t>
+  </si>
+  <si>
+    <t>% of Detected Cases</t>
+  </si>
+  <si>
+    <t>% of Referral Cases</t>
   </si>
 </sst>
 </file>
@@ -656,14 +659,14 @@
     <xf numFmtId="1" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,7 +973,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="11.25"/>
@@ -985,121 +988,123 @@
   <sheetData>
     <row r="1" spans="1:36" ht="45">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="52"/>
+      <c r="AJ1" s="53" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="2" spans="1:36" ht="22.5">
-      <c r="A2" s="53">
+      <c r="A2" s="51">
         <v>44933</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="D2" s="15">
         <v>0</v>
@@ -1202,14 +1207,14 @@
       </c>
     </row>
     <row r="3" spans="1:36" ht="22.5">
-      <c r="A3" s="53">
+      <c r="A3" s="51">
         <v>44933</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="15">
         <v>0</v>
@@ -1312,14 +1317,14 @@
       </c>
     </row>
     <row r="4" spans="1:36" ht="22.5">
-      <c r="A4" s="53">
+      <c r="A4" s="51">
         <v>44933</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="15">
         <v>0</v>
@@ -1422,14 +1427,14 @@
       </c>
     </row>
     <row r="5" spans="1:36" ht="22.5">
-      <c r="A5" s="53">
+      <c r="A5" s="51">
         <v>44933</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="15">
         <v>0</v>
@@ -1532,14 +1537,14 @@
       </c>
     </row>
     <row r="6" spans="1:36" ht="22.5">
-      <c r="A6" s="53">
+      <c r="A6" s="51">
         <v>44933</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="15">
         <v>0</v>
@@ -1638,18 +1643,18 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="22.5">
-      <c r="A7" s="53">
+      <c r="A7" s="51">
         <v>44933</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="15">
         <v>0</v>
@@ -1752,14 +1757,14 @@
       </c>
     </row>
     <row r="8" spans="1:36" ht="22.5">
-      <c r="A8" s="53">
+      <c r="A8" s="51">
         <v>44933</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="15">
         <v>0</v>
@@ -1855,21 +1860,21 @@
         <v>0</v>
       </c>
       <c r="AI8" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ8" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="22.5">
-      <c r="A9" s="53">
+      <c r="A9" s="51">
         <v>44933</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="31">
         <v>0</v>
@@ -1972,14 +1977,14 @@
       </c>
     </row>
     <row r="10" spans="1:36" ht="22.5">
-      <c r="A10" s="53">
+      <c r="A10" s="51">
         <v>44933</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="D10" s="33">
         <v>0</v>
@@ -2082,14 +2087,14 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="22.5">
-      <c r="A11" s="53">
+      <c r="A11" s="51">
         <v>44933</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="15">
         <v>0</v>
@@ -2192,14 +2197,14 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="22.5">
-      <c r="A12" s="53">
+      <c r="A12" s="51">
         <v>44933</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="33">
         <v>0</v>
@@ -2302,14 +2307,14 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="22.5">
-      <c r="A13" s="53">
+      <c r="A13" s="51">
         <v>44933</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="15">
         <v>0</v>
@@ -2408,18 +2413,18 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="22.5">
-      <c r="A14" s="53">
+      <c r="A14" s="51">
         <v>44933</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>50</v>
       </c>
       <c r="D14" s="34">
         <v>0</v>
@@ -2522,14 +2527,14 @@
       </c>
     </row>
     <row r="15" spans="1:36" ht="22.5">
-      <c r="A15" s="53">
+      <c r="A15" s="51">
         <v>44933</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="15">
         <v>1</v>
@@ -2632,14 +2637,14 @@
       </c>
     </row>
     <row r="16" spans="1:36" ht="22.5">
-      <c r="A16" s="53">
+      <c r="A16" s="51">
         <v>44933</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="15">
         <v>0</v>
@@ -2738,18 +2743,18 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="22.5">
-      <c r="A17" s="53">
+      <c r="A17" s="51">
         <v>44933</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="D17" s="15">
         <v>0</v>
@@ -2852,14 +2857,14 @@
       </c>
     </row>
     <row r="18" spans="1:36" ht="22.5">
-      <c r="A18" s="53">
+      <c r="A18" s="51">
         <v>44933</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="15">
         <v>0</v>
@@ -2962,14 +2967,14 @@
       </c>
     </row>
     <row r="19" spans="1:36" ht="22.5">
-      <c r="A19" s="53">
+      <c r="A19" s="51">
         <v>44933</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="D19" s="15">
         <v>0</v>
@@ -3072,14 +3077,14 @@
       </c>
     </row>
     <row r="20" spans="1:36" ht="22.5">
-      <c r="A20" s="53">
+      <c r="A20" s="51">
         <v>44933</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="15">
         <v>0</v>
@@ -3182,14 +3187,14 @@
       </c>
     </row>
     <row r="21" spans="1:36" ht="22.5">
-      <c r="A21" s="53">
+      <c r="A21" s="51">
         <v>44933</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="15">
         <v>0</v>
@@ -3285,21 +3290,21 @@
         <v>11</v>
       </c>
       <c r="AI21" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ21" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="22.5">
-      <c r="A22" s="53">
+      <c r="A22" s="51">
         <v>44933</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>61</v>
       </c>
       <c r="D22" s="15">
         <v>0</v>
@@ -3395,21 +3400,21 @@
         <v>0</v>
       </c>
       <c r="AI22" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ22" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="22.5">
-      <c r="A23" s="53">
+      <c r="A23" s="51">
         <v>44933</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="39">
         <v>0</v>
@@ -3505,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="AI23" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ23" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="22.5">
-      <c r="A24" s="53">
+      <c r="A24" s="51">
         <v>44933</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="47" t="s">
-        <v>63</v>
-      </c>
       <c r="D24" s="39">
         <v>0</v>
       </c>
@@ -3615,21 +3620,21 @@
         <v>0</v>
       </c>
       <c r="AI24" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ24" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="22.5">
-      <c r="A25" s="53">
+      <c r="A25" s="51">
         <v>44933</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="15">
         <v>0</v>
@@ -3725,21 +3730,21 @@
         <v>0</v>
       </c>
       <c r="AI25" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ25" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="22.5">
-      <c r="A26" s="53">
+      <c r="A26" s="51">
         <v>44933</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="39">
         <v>0</v>
@@ -3835,21 +3840,21 @@
         <v>0</v>
       </c>
       <c r="AI26" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ26" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="22.5">
-      <c r="A27" s="53">
+      <c r="A27" s="51">
         <v>44933</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="39">
         <v>0</v>
@@ -3945,21 +3950,21 @@
         <v>0</v>
       </c>
       <c r="AI27" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ27" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="22.5">
-      <c r="A28" s="53">
+      <c r="A28" s="51">
         <v>44933</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="39">
         <v>0</v>
@@ -4055,21 +4060,21 @@
         <v>0</v>
       </c>
       <c r="AI28" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ28" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:36">
-      <c r="A29" s="53">
+      <c r="A29" s="51">
         <v>44933</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" s="15">
         <v>0</v>
@@ -4165,21 +4170,21 @@
         <v>94</v>
       </c>
       <c r="AI29" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ29" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:36">
-      <c r="A30" s="53">
+      <c r="A30" s="51">
         <v>44933</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="15">
         <v>0</v>
@@ -4282,14 +4287,14 @@
       </c>
     </row>
     <row r="31" spans="1:36" ht="33.75">
-      <c r="A31" s="53">
+      <c r="A31" s="51">
         <v>44933</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="39">
         <v>0</v>
@@ -4385,16 +4390,13 @@
         <v>0</v>
       </c>
       <c r="AI31" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ31" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="AI1:AJ1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
